--- a/cypress/fixtures/expectedResults/IM/IMG OR 11 04 22.xlsx
+++ b/cypress/fixtures/expectedResults/IM/IMG OR 11 04 22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreis/MyOwnProject/api-test-cypress/cypress/fixtures/expectedResults/IM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B281D4C-AE29-C040-A85C-68C9C1333F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7447B3A1-1FA5-4C4D-B4F9-42CCD8CA8E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5540" yWindow="-28060" windowWidth="33820" windowHeight="22820" xr2:uid="{992EAC74-168D-4556-9021-6B1FC9608133}"/>
+    <workbookView xWindow="18260" yWindow="-28300" windowWidth="25440" windowHeight="26860" xr2:uid="{992EAC74-168D-4556-9021-6B1FC9608133}"/>
   </bookViews>
   <sheets>
     <sheet name="Forms and Bulletins" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="1300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="1341">
   <si>
     <t>CRITERIA</t>
   </si>
@@ -4018,6 +4018,129 @@
   </si>
   <si>
     <t>IMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCF - Rev 10 12 </t>
+  </si>
+  <si>
+    <t>CE - Rev 10 12</t>
+  </si>
+  <si>
+    <t>DIC - Rev 04 07</t>
+  </si>
+  <si>
+    <t>EDP - Rev 03 09</t>
+  </si>
+  <si>
+    <t>EDP - Rev 10 12</t>
+  </si>
+  <si>
+    <t>ESR - Rev 01 09</t>
+  </si>
+  <si>
+    <t>ESR - Rev 10 12</t>
+  </si>
+  <si>
+    <t>ART - Rev 10 12</t>
+  </si>
+  <si>
+    <t>MTC - Rev 10 12</t>
+  </si>
+  <si>
+    <t>RAD - Rev 10 12</t>
+  </si>
+  <si>
+    <t>TRA - Rev 10 12</t>
+  </si>
+  <si>
+    <t>BR - Rev. 07 20</t>
+  </si>
+  <si>
+    <t>BR - Rev. 11 15</t>
+  </si>
+  <si>
+    <t>CE - Rev. 07 11</t>
+  </si>
+  <si>
+    <t>EDP - Rev. 04 08</t>
+  </si>
+  <si>
+    <t>EDP - Rev. 05 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAD - Rev. 04 08 </t>
+  </si>
+  <si>
+    <t>ART - Rev. 08 11</t>
+  </si>
+  <si>
+    <t>IF - Rev. 08 10</t>
+  </si>
+  <si>
+    <t>FLT - Rev. 01 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTC - Rev. 04 18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUS - Rev. 10 12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAD - Rev. 1.1 </t>
+  </si>
+  <si>
+    <t>RIG - Rev. 08 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRA - Rev. 05 07 </t>
+  </si>
+  <si>
+    <t>BCF - Rev. 04 08</t>
+  </si>
+  <si>
+    <t>BR - Rev. 05 12</t>
+  </si>
+  <si>
+    <t>DIC - Rev 10 12</t>
+  </si>
+  <si>
+    <t>FAD - REV 10 12</t>
+  </si>
+  <si>
+    <t>FLT - REV 10 12</t>
+  </si>
+  <si>
+    <t>IF - Rev 10 12</t>
+  </si>
+  <si>
+    <t>MTC - REV 10 12</t>
+  </si>
+  <si>
+    <t>RAD - RATING APPENDIX</t>
+  </si>
+  <si>
+    <t>RIG - REV 10 12</t>
+  </si>
+  <si>
+    <t>WLL - Rev. 12 21</t>
+  </si>
+  <si>
+    <t>REV 01 21 (SFP)</t>
+  </si>
+  <si>
+    <t>OR - Rev 01 21</t>
+  </si>
+  <si>
+    <t>PRL</t>
+  </si>
+  <si>
+    <t>CC - Forms Comparison - Rev 03 11</t>
+  </si>
+  <si>
+    <t>CC - Forms Comparison Rev 11 06</t>
+  </si>
+  <si>
+    <t>CC - Forms Comparison - Rev 11 06</t>
   </si>
 </sst>
 </file>
@@ -4581,8 +4704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A64F5E-9FD6-4C1D-BD99-811FD1A36724}">
   <dimension ref="A1:O587"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A497" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A506" sqref="A506:A543"/>
+    <sheetView tabSelected="1" topLeftCell="A535" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B572" sqref="B572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14454,7 +14577,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>1297</v>
       </c>
@@ -14474,7 +14597,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>1297</v>
       </c>
@@ -14494,7 +14617,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>1297</v>
       </c>
@@ -14514,7 +14637,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>1297</v>
       </c>
@@ -14534,7 +14657,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>1297</v>
       </c>
@@ -14554,7 +14677,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>1297</v>
       </c>
@@ -14574,7 +14697,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>1297</v>
       </c>
@@ -14594,10 +14717,8 @@
         <v>554</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A504" s="8" t="s">
-        <v>1017</v>
-      </c>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A504" s="8"/>
       <c r="B504" s="8" t="s">
         <v>1200</v>
       </c>
@@ -14613,11 +14734,12 @@
       <c r="G504" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A505" s="8" t="s">
-        <v>1014</v>
-      </c>
+      <c r="H504" s="8" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A505" s="8"/>
       <c r="B505" s="8" t="s">
         <v>1201</v>
       </c>
@@ -14631,13 +14753,16 @@
       <c r="G505" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H505" s="8" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B506" s="8" t="s">
-        <v>1202</v>
+        <v>1325</v>
       </c>
       <c r="C506" s="19" t="s">
         <v>1069</v>
@@ -14650,13 +14775,16 @@
       <c r="G506" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H506" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B507" s="8" t="s">
-        <v>1203</v>
+        <v>1300</v>
       </c>
       <c r="C507" s="19" t="s">
         <v>1071</v>
@@ -14666,13 +14794,16 @@
       <c r="G507" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H507" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B508" s="8" t="s">
-        <v>1204</v>
+        <v>1311</v>
       </c>
       <c r="C508" s="19" t="s">
         <v>1072</v>
@@ -14685,13 +14816,16 @@
       <c r="G508" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H508" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B509" s="8" t="s">
-        <v>1205</v>
+        <v>1311</v>
       </c>
       <c r="C509" s="19" t="s">
         <v>1073</v>
@@ -14704,13 +14838,16 @@
       <c r="G509" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H509" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B510" s="8" t="s">
-        <v>1206</v>
+        <v>1312</v>
       </c>
       <c r="C510" s="8" t="s">
         <v>1076</v>
@@ -14722,13 +14859,16 @@
       <c r="G510" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H510" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B511" s="8" t="s">
-        <v>1207</v>
+        <v>1326</v>
       </c>
       <c r="C511" s="19" t="s">
         <v>1077</v>
@@ -14738,13 +14878,16 @@
       <c r="G511" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H511" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B512" s="8" t="s">
-        <v>1208</v>
+        <v>1313</v>
       </c>
       <c r="C512" s="19" t="s">
         <v>1078</v>
@@ -14757,13 +14900,16 @@
       <c r="G512" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H512" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B513" s="8" t="s">
-        <v>1209</v>
+        <v>1301</v>
       </c>
       <c r="C513" s="19" t="s">
         <v>1081</v>
@@ -14773,13 +14919,16 @@
       <c r="G513" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H513" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B514" s="8" t="s">
-        <v>1210</v>
+        <v>1302</v>
       </c>
       <c r="C514" s="31" t="s">
         <v>1082</v>
@@ -14792,13 +14941,16 @@
       <c r="G514" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H514" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B515" s="8" t="s">
-        <v>1211</v>
+        <v>1327</v>
       </c>
       <c r="C515" s="18" t="s">
         <v>1084</v>
@@ -14808,13 +14960,16 @@
       <c r="G515" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H515" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B516" s="8" t="s">
-        <v>1212</v>
+        <v>1303</v>
       </c>
       <c r="C516" s="33" t="s">
         <v>1085</v>
@@ -14827,13 +14982,16 @@
       <c r="G516" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H516" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B517" s="8" t="s">
-        <v>1213</v>
+        <v>1303</v>
       </c>
       <c r="C517" s="33" t="s">
         <v>1087</v>
@@ -14846,13 +15004,16 @@
       <c r="G517" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H517" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B518" s="8" t="s">
-        <v>1214</v>
+        <v>1314</v>
       </c>
       <c r="C518" s="33" t="s">
         <v>1089</v>
@@ -14865,13 +15026,16 @@
       <c r="G518" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="519" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H518" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B519" s="8" t="s">
-        <v>1215</v>
+        <v>1315</v>
       </c>
       <c r="C519" s="29" t="s">
         <v>1091</v>
@@ -14884,13 +15048,16 @@
       <c r="G519" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H519" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B520" s="8" t="s">
-        <v>1216</v>
+        <v>1304</v>
       </c>
       <c r="C520" s="18" t="s">
         <v>1093</v>
@@ -14900,13 +15067,16 @@
       <c r="G520" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H520" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B521" s="8" t="s">
-        <v>1217</v>
+        <v>1305</v>
       </c>
       <c r="C521" s="18" t="s">
         <v>1094</v>
@@ -14919,13 +15089,16 @@
       <c r="G521" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H521" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B522" s="8" t="s">
-        <v>1218</v>
+        <v>1306</v>
       </c>
       <c r="C522" s="18" t="s">
         <v>1096</v>
@@ -14935,13 +15108,16 @@
       <c r="G522" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H522" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B523" s="8" t="s">
-        <v>1219</v>
+        <v>1316</v>
       </c>
       <c r="C523" s="18" t="s">
         <v>1097</v>
@@ -14954,13 +15130,16 @@
       <c r="G523" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H523" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B524" s="8" t="s">
-        <v>1220</v>
+        <v>1328</v>
       </c>
       <c r="C524" s="18" t="s">
         <v>1099</v>
@@ -14970,13 +15149,16 @@
       <c r="G524" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H524" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B525" s="8" t="s">
-        <v>1221</v>
+        <v>1317</v>
       </c>
       <c r="C525" s="18" t="s">
         <v>1063</v>
@@ -14989,13 +15171,16 @@
       <c r="G525" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H525" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B526" s="8" t="s">
-        <v>1222</v>
+        <v>1307</v>
       </c>
       <c r="C526" s="18" t="s">
         <v>1101</v>
@@ -15005,13 +15190,16 @@
       <c r="G526" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H526" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B527" s="8" t="s">
-        <v>1223</v>
+        <v>1318</v>
       </c>
       <c r="C527" s="18" t="s">
         <v>1102</v>
@@ -15024,13 +15212,16 @@
       <c r="G527" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H527" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B528" s="8" t="s">
-        <v>1224</v>
+        <v>1330</v>
       </c>
       <c r="C528" s="18" t="s">
         <v>1104</v>
@@ -15040,13 +15231,16 @@
       <c r="G528" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H528" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B529" s="8" t="s">
-        <v>1225</v>
+        <v>1319</v>
       </c>
       <c r="C529" s="18" t="s">
         <v>1105</v>
@@ -15059,13 +15253,16 @@
       <c r="G529" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H529" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B530" s="8" t="s">
-        <v>1226</v>
+        <v>1329</v>
       </c>
       <c r="C530" s="18" t="s">
         <v>1107</v>
@@ -15075,13 +15272,16 @@
       <c r="G530" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H530" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B531" s="8" t="s">
-        <v>1227</v>
+        <v>1320</v>
       </c>
       <c r="C531" s="18" t="s">
         <v>1108</v>
@@ -15094,13 +15294,16 @@
       <c r="G531" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H531" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B532" s="8" t="s">
-        <v>1228</v>
+        <v>1331</v>
       </c>
       <c r="C532" s="18" t="s">
         <v>1110</v>
@@ -15110,13 +15313,16 @@
       <c r="G532" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H532" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B533" s="8" t="s">
-        <v>1229</v>
+        <v>1321</v>
       </c>
       <c r="C533" s="18" t="s">
         <v>1111</v>
@@ -15129,13 +15335,16 @@
       <c r="G533" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H533" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B534" s="8" t="s">
-        <v>1230</v>
+        <v>1321</v>
       </c>
       <c r="C534" s="18" t="s">
         <v>1113</v>
@@ -15145,13 +15354,16 @@
       <c r="G534" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H534" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B535" s="8" t="s">
-        <v>1231</v>
+        <v>1322</v>
       </c>
       <c r="C535" s="18" t="s">
         <v>1114</v>
@@ -15164,13 +15376,16 @@
       <c r="G535" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H535" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B536" s="8" t="s">
-        <v>1232</v>
+        <v>1332</v>
       </c>
       <c r="C536" s="18" t="s">
         <v>1116</v>
@@ -15180,13 +15395,16 @@
       <c r="G536" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H536" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B537" s="8" t="s">
-        <v>1233</v>
+        <v>1309</v>
       </c>
       <c r="C537" s="18" t="s">
         <v>1117</v>
@@ -15197,13 +15415,16 @@
       <c r="G537" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H537" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B538" s="8" t="s">
-        <v>1234</v>
+        <v>1323</v>
       </c>
       <c r="C538" s="18" t="s">
         <v>1118</v>
@@ -15216,13 +15437,16 @@
       <c r="G538" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H538" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B539" s="8" t="s">
-        <v>1235</v>
+        <v>1333</v>
       </c>
       <c r="C539" s="18" t="s">
         <v>1120</v>
@@ -15232,13 +15456,16 @@
       <c r="G539" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H539" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B540" s="8" t="s">
-        <v>1236</v>
+        <v>1324</v>
       </c>
       <c r="C540" s="18" t="s">
         <v>1121</v>
@@ -15251,13 +15478,16 @@
       <c r="G540" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H540" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B541" s="8" t="s">
-        <v>1237</v>
+        <v>1310</v>
       </c>
       <c r="C541" s="18" t="s">
         <v>1124</v>
@@ -15267,13 +15497,16 @@
       <c r="G541" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H541" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B542" s="8" t="s">
-        <v>1238</v>
+        <v>1334</v>
       </c>
       <c r="C542" s="18" t="s">
         <v>1123</v>
@@ -15286,13 +15519,16 @@
       <c r="G542" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H542" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B543" s="8" t="s">
-        <v>1239</v>
+        <v>1308</v>
       </c>
       <c r="C543" s="18" t="s">
         <v>1126</v>
@@ -15302,13 +15538,16 @@
       <c r="G543" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H543" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" s="8" t="s">
-        <v>1053</v>
+        <v>1299</v>
       </c>
       <c r="B544" s="8" t="s">
-        <v>1240</v>
+        <v>1335</v>
       </c>
       <c r="C544" s="18" t="s">
         <v>1129</v>
@@ -15318,13 +15557,16 @@
       <c r="G544" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H544" s="8" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545" s="8" t="s">
-        <v>1053</v>
+        <v>1299</v>
       </c>
       <c r="B545" s="8" t="s">
-        <v>1241</v>
+        <v>1336</v>
       </c>
       <c r="C545" s="18" t="s">
         <v>1128</v>
@@ -15337,8 +15579,11 @@
       <c r="G545" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H545" s="8" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546" s="8" t="s">
         <v>1298</v>
       </c>
@@ -15352,8 +15597,11 @@
       <c r="E546" s="18"/>
       <c r="F546" s="18"/>
       <c r="G546" s="9"/>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H546" s="8" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547" s="8" t="s">
         <v>1298</v>
       </c>
@@ -15368,10 +15616,13 @@
       <c r="G547" s="9" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H547" s="8" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" s="8" t="s">
-        <v>1028</v>
+        <v>1299</v>
       </c>
       <c r="B548" s="8" t="s">
         <v>1173</v>
@@ -15388,10 +15639,13 @@
       <c r="G548" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H548" s="8" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549" s="8" t="s">
-        <v>1028</v>
+        <v>1299</v>
       </c>
       <c r="B549" s="8" t="s">
         <v>1172</v>
@@ -15408,10 +15662,13 @@
       <c r="G549" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H549" s="8" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550" s="8" t="s">
-        <v>1028</v>
+        <v>1299</v>
       </c>
       <c r="B550" s="8" t="s">
         <v>1171</v>
@@ -15428,10 +15685,13 @@
       <c r="G550" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H550" s="8" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" s="8" t="s">
-        <v>1028</v>
+        <v>1299</v>
       </c>
       <c r="B551" s="8" t="s">
         <v>1174</v>
@@ -15448,10 +15708,13 @@
       <c r="G551" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H551" s="8" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" s="8" t="s">
-        <v>1028</v>
+        <v>1299</v>
       </c>
       <c r="B552" s="8" t="s">
         <v>1175</v>
@@ -15468,10 +15731,13 @@
       <c r="G552" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H552" s="8" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" s="8" t="s">
-        <v>1028</v>
+        <v>1299</v>
       </c>
       <c r="B553" s="8" t="s">
         <v>1176</v>
@@ -15488,10 +15754,13 @@
       <c r="G553" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H553" s="8" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" s="8" t="s">
-        <v>1028</v>
+        <v>1299</v>
       </c>
       <c r="B554" s="8" t="s">
         <v>1177</v>
@@ -15509,10 +15778,13 @@
       <c r="G554" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H554" s="8" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A555" s="8" t="s">
-        <v>1028</v>
+        <v>1299</v>
       </c>
       <c r="B555" s="8" t="s">
         <v>1178</v>
@@ -15530,10 +15802,13 @@
       <c r="G555" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H555" s="8" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A556" s="8" t="s">
-        <v>1028</v>
+        <v>1299</v>
       </c>
       <c r="B556" s="8" t="s">
         <v>1179</v>
@@ -15551,10 +15826,13 @@
       <c r="G556" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H556" s="8" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A557" s="8" t="s">
-        <v>1028</v>
+        <v>1299</v>
       </c>
       <c r="B557" s="8" t="s">
         <v>1180</v>
@@ -15572,10 +15850,13 @@
       <c r="G557" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H557" s="8" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A558" s="8" t="s">
-        <v>1028</v>
+        <v>1299</v>
       </c>
       <c r="B558" s="8" t="s">
         <v>1181</v>
@@ -15593,10 +15874,13 @@
       <c r="G558" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H558" s="8" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559" s="8" t="s">
-        <v>1028</v>
+        <v>1299</v>
       </c>
       <c r="B559" s="8" t="s">
         <v>1182</v>
@@ -15614,10 +15898,13 @@
       <c r="G559" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H559" s="8" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560" s="8" t="s">
-        <v>1028</v>
+        <v>1299</v>
       </c>
       <c r="B560" s="8" t="s">
         <v>1183</v>
@@ -15635,10 +15922,13 @@
       <c r="G560" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="561" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H560" s="8" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" s="8" t="s">
-        <v>1028</v>
+        <v>1299</v>
       </c>
       <c r="B561" s="8" t="s">
         <v>1184</v>
@@ -15656,10 +15946,13 @@
       <c r="G561" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="562" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H561" s="8" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A562" s="8" t="s">
-        <v>1028</v>
+        <v>1299</v>
       </c>
       <c r="B562" s="8" t="s">
         <v>1185</v>
@@ -15677,10 +15970,13 @@
       <c r="G562" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="563" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H562" s="8" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" s="8" t="s">
-        <v>1028</v>
+        <v>1299</v>
       </c>
       <c r="B563" s="8" t="s">
         <v>1186</v>
@@ -15698,10 +15994,13 @@
       <c r="G563" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="564" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H563" s="8" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A564" s="8" t="s">
-        <v>1029</v>
+        <v>1299</v>
       </c>
       <c r="B564" s="8" t="s">
         <v>1173</v>
@@ -15714,10 +16013,13 @@
       <c r="G564" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="565" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H564" s="8" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" s="8" t="s">
-        <v>1029</v>
+        <v>1299</v>
       </c>
       <c r="B565" s="8" t="s">
         <v>1187</v>
@@ -15730,10 +16032,13 @@
       <c r="G565" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="566" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H565" s="8" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A566" s="8" t="s">
-        <v>1029</v>
+        <v>1299</v>
       </c>
       <c r="B566" s="8" t="s">
         <v>1188</v>
@@ -15746,10 +16051,13 @@
       <c r="G566" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="567" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H566" s="8" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" s="8" t="s">
-        <v>1029</v>
+        <v>1299</v>
       </c>
       <c r="B567" s="8" t="s">
         <v>1189</v>
@@ -15762,13 +16070,16 @@
       <c r="G567" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="568" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H567" s="8" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A568" s="8" t="s">
-        <v>1029</v>
+        <v>1299</v>
       </c>
       <c r="B568" s="8" t="s">
-        <v>1190</v>
+        <v>1338</v>
       </c>
       <c r="C568" s="19" t="s">
         <v>1277</v>
@@ -15778,13 +16089,16 @@
       <c r="G568" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="569" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H568" s="8" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" s="8" t="s">
-        <v>1029</v>
+        <v>1299</v>
       </c>
       <c r="B569" s="8" t="s">
-        <v>1191</v>
+        <v>1338</v>
       </c>
       <c r="C569" s="19" t="s">
         <v>1278</v>
@@ -15794,13 +16108,16 @@
       <c r="G569" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="570" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H569" s="8" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A570" s="8" t="s">
-        <v>1029</v>
+        <v>1299</v>
       </c>
       <c r="B570" s="8" t="s">
-        <v>1192</v>
+        <v>1339</v>
       </c>
       <c r="C570" s="19" t="s">
         <v>1279</v>
@@ -15810,13 +16127,16 @@
       <c r="G570" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="571" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H570" s="8" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" s="8" t="s">
-        <v>1029</v>
+        <v>1299</v>
       </c>
       <c r="B571" s="8" t="s">
-        <v>1193</v>
+        <v>1339</v>
       </c>
       <c r="C571" s="19" t="s">
         <v>1280</v>
@@ -15826,13 +16146,16 @@
       <c r="G571" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="572" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H571" s="8" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A572" s="8" t="s">
-        <v>1029</v>
+        <v>1299</v>
       </c>
       <c r="B572" s="8" t="s">
-        <v>1194</v>
+        <v>1340</v>
       </c>
       <c r="C572" s="19" t="s">
         <v>1281</v>
@@ -15842,10 +16165,13 @@
       <c r="G572" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="573" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H572" s="8" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" s="8" t="s">
-        <v>1029</v>
+        <v>1299</v>
       </c>
       <c r="B573" s="8" t="s">
         <v>1195</v>
@@ -15858,10 +16184,13 @@
       <c r="G573" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="574" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H573" s="8" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A574" s="8" t="s">
-        <v>1029</v>
+        <v>1299</v>
       </c>
       <c r="B574" s="8" t="s">
         <v>1196</v>
@@ -15874,10 +16203,13 @@
       <c r="G574" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="575" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H574" s="8" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A575" s="8" t="s">
-        <v>1029</v>
+        <v>1299</v>
       </c>
       <c r="B575" s="8" t="s">
         <v>1197</v>
@@ -15890,10 +16222,13 @@
       <c r="G575" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="576" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H575" s="8" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A576" s="8" t="s">
-        <v>1029</v>
+        <v>1299</v>
       </c>
       <c r="B576" s="8" t="s">
         <v>1198</v>
@@ -15906,10 +16241,13 @@
       <c r="G576" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="577" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H576" s="8" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A577" s="8" t="s">
-        <v>1029</v>
+        <v>1299</v>
       </c>
       <c r="B577" s="8" t="s">
         <v>1199</v>
@@ -15922,10 +16260,13 @@
       <c r="G577" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="578" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H577" s="8" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A578" s="8" t="s">
-        <v>1041</v>
+        <v>1337</v>
       </c>
       <c r="B578" s="8" t="s">
         <v>1042</v>
@@ -15938,10 +16279,13 @@
       <c r="G578" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="579" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H578" s="8" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A579" s="8" t="s">
-        <v>1041</v>
+        <v>1337</v>
       </c>
       <c r="B579" s="8" t="s">
         <v>1043</v>
@@ -15954,10 +16298,13 @@
       <c r="G579" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="580" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H579" s="8" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A580" s="8" t="s">
-        <v>1041</v>
+        <v>1337</v>
       </c>
       <c r="B580" s="8" t="s">
         <v>1044</v>
@@ -15970,10 +16317,13 @@
       <c r="G580" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="581" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H580" s="8" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A581" s="8" t="s">
-        <v>1041</v>
+        <v>1337</v>
       </c>
       <c r="B581" s="8" t="s">
         <v>1045</v>
@@ -15986,10 +16336,13 @@
       <c r="G581" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="582" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H581" s="8" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A582" s="8" t="s">
-        <v>1041</v>
+        <v>1337</v>
       </c>
       <c r="B582" s="8" t="s">
         <v>1046</v>
@@ -16002,10 +16355,13 @@
       <c r="G582" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="583" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H582" s="8" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A583" s="8" t="s">
-        <v>1041</v>
+        <v>1337</v>
       </c>
       <c r="B583" s="8" t="s">
         <v>1047</v>
@@ -16018,10 +16374,13 @@
       <c r="G583" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="584" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H583" s="8" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A584" s="8" t="s">
-        <v>1041</v>
+        <v>1337</v>
       </c>
       <c r="B584" s="8" t="s">
         <v>1048</v>
@@ -16034,10 +16393,13 @@
       <c r="G584" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="585" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H584" s="8" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A585" s="8" t="s">
-        <v>1041</v>
+        <v>1337</v>
       </c>
       <c r="B585" s="8" t="s">
         <v>1049</v>
@@ -16050,10 +16412,13 @@
       <c r="G585" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="586" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H585" s="8" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A586" s="8" t="s">
-        <v>1041</v>
+        <v>1337</v>
       </c>
       <c r="B586" s="8" t="s">
         <v>1052</v>
@@ -16066,10 +16431,13 @@
       <c r="G586" s="9" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="587" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H586" s="8" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A587" s="8" t="s">
-        <v>1041</v>
+        <v>1337</v>
       </c>
       <c r="B587" s="8" t="s">
         <v>1050</v>
@@ -16081,6 +16449,9 @@
       <c r="F587"/>
       <c r="G587" s="9" t="s">
         <v>1030</v>
+      </c>
+      <c r="H587" s="8" t="s">
+        <v>1041</v>
       </c>
     </row>
   </sheetData>
@@ -16094,8 +16465,8 @@
   <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD91"/>
+      <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
